--- a/xlsx/大头针_intext.xlsx
+++ b/xlsx/大头针_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E9%87%98</t>
   </si>
   <si>
-    <t>圖釘</t>
+    <t>图钉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Stub</t>
